--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2595.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2595.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7887994619280636</v>
+        <v>1.540661215782166</v>
       </c>
       <c r="B1">
-        <v>1.399647015845542</v>
+        <v>2.403077602386475</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.389420032501221</v>
       </c>
       <c r="D1">
-        <v>2.142599381054941</v>
+        <v>3.577815771102905</v>
       </c>
       <c r="E1">
-        <v>0.9631444180983005</v>
+        <v>0.9780349135398865</v>
       </c>
     </row>
   </sheetData>
